--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1482799.832619735</v>
+        <v>1442836.549680541</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914462</v>
+        <v>426806.9758914463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.48847871</v>
+        <v>8362709.488478711</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8384690.708251163</v>
+        <v>8384690.708251162</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>235.9477392089838</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
     </row>
     <row r="3">
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>61.25142126258076</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>145.1806198985548</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>222.1008216780093</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>17.71909330984136</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -1031,16 +1031,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>190.1066023865956</v>
       </c>
     </row>
     <row r="9">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>151.4741327147725</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.122280040031055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>221.8364391846913</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>28.18872479095783</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>25.18674943245865</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1466,10 +1466,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.12739053735494</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>71.25280406479386</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>134.7307170396225</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>126.3450285051683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>36.53291247045535</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1706,7 +1706,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>149.3102327444246</v>
+        <v>165.4810623697078</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>71.25280406479386</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>13.08993799274038</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>58.28272660856686</v>
+        <v>186.1426910786074</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>20.17002628298199</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>74.15307578127808</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2872966473816</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>126.4213154637096</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>26.73110927253554</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3677099213027</v>
+        <v>99.9762656141835</v>
       </c>
       <c r="U21" t="n">
         <v>225.8957288909827</v>
@@ -2225,10 +2225,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>147.5310530237951</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>93.23799174705603</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.4297492889999</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>132.9542498710894</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>170.0991949343319</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.90029553604458</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>47.47529300550314</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>182.6385940860343</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>222.2621159560654</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>85.67482303850645</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2648,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>126.636009282424</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>145.4297492889999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>218.7580189634924</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>351.6614283713542</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>179.4658614532381</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,22 +2876,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>41.16551806305293</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>166.5157685542569</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.95236170054482</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>26.731109272536</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>181.8351224948159</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3110,7 +3110,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>79.82222373250251</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3119,13 +3119,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405355</v>
+        <v>3.722778175975149</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.79258128802688</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>35.9764184812468</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>216.7087340736987</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>181.2858542056972</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
@@ -3347,22 +3347,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>66.42895148672989</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.3277290573763</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>71.10034144793623</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>137.955174638333</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.8074150145517</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>75.1098697362999</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>202.3252544558716</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>52.1829371375707</v>
       </c>
       <c r="G39" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>174.5586549697428</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>73.91737409206846</v>
       </c>
       <c r="F40" t="n">
-        <v>47.47529300550314</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>179.4658614532381</v>
@@ -3796,13 +3796,13 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>87.7449914439822</v>
       </c>
       <c r="V41" t="n">
-        <v>164.318803470532</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>83.29896986725154</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
         <v>105.5335559456492</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405355</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.3677099213027</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.66757925108459</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>123.4811043909671</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>178.9058104826157</v>
       </c>
       <c r="F44" t="n">
-        <v>282.2119587267923</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>140.8218514367208</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>100.8367104035704</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>68.53353193096729</v>
       </c>
       <c r="G46" t="n">
-        <v>13.08993799274037</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>470.2141014732327</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.918188268317</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C3" t="n">
-        <v>520.918188268317</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D3" t="n">
-        <v>520.918188268317</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E3" t="n">
-        <v>361.6807332628614</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>728.7696884738498</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>520.918188268317</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>520.918188268317</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>509.4769954460863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>266.0282188019862</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>946.1590814602914</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>772.7417369109603</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>233.7108255783361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.68395448076474</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>567.60420440717</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>567.60420440717</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,16 +4889,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>811.0529810512701</v>
       </c>
       <c r="W9" t="n">
-        <v>399.5118995681682</v>
+        <v>567.60420440717</v>
       </c>
       <c r="X9" t="n">
-        <v>191.6603993626354</v>
+        <v>567.60420440717</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>567.60420440717</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1165.457239343441</v>
+        <v>1649.955042051474</v>
       </c>
       <c r="C11" t="n">
-        <v>796.4947224030295</v>
+        <v>1649.955042051474</v>
       </c>
       <c r="D11" t="n">
-        <v>796.4947224030295</v>
+        <v>1649.955042051474</v>
       </c>
       <c r="E11" t="n">
-        <v>796.4947224030295</v>
+        <v>1264.16678945323</v>
       </c>
       <c r="F11" t="n">
-        <v>796.4947224030295</v>
+        <v>853.1808846636227</v>
       </c>
       <c r="G11" t="n">
-        <v>378.3070564736033</v>
+        <v>434.9932187341964</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T11" t="n">
-        <v>2190.61837996229</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U11" t="n">
-        <v>1936.838685974173</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V11" t="n">
-        <v>1936.838685974173</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="W11" t="n">
-        <v>1584.070030704059</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="X11" t="n">
-        <v>1555.596571319253</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="Y11" t="n">
-        <v>1165.457239343441</v>
+        <v>1649.955042051474</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>733.2411437123158</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C12" t="n">
-        <v>558.7881144311888</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D12" t="n">
-        <v>558.7881144311888</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E12" t="n">
-        <v>399.5506594257333</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F12" t="n">
-        <v>253.0161014526182</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G12" t="n">
-        <v>114.9862139017798</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
@@ -5129,7 +5129,7 @@
         <v>728.4044351658748</v>
       </c>
       <c r="M12" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N12" t="n">
         <v>1557.865593173221</v>
@@ -5144,28 +5144,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2394.394302853058</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2233.996571745931</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T12" t="n">
-        <v>2034.6352485931</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U12" t="n">
-        <v>1806.457744662815</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V12" t="n">
-        <v>1571.305636431072</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W12" t="n">
-        <v>1317.068279702871</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X12" t="n">
-        <v>1109.216779497338</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y12" t="n">
-        <v>901.4564807323839</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
-        <v>568.6656403223806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J13" t="n">
         <v>48.81975253256327</v>
@@ -5229,22 +5229,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U13" t="n">
-        <v>640.6381696807582</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="V13" t="n">
-        <v>640.6381696807582</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="W13" t="n">
-        <v>640.6381696807582</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1364.455426035745</v>
+        <v>980.4169119745452</v>
       </c>
       <c r="C14" t="n">
-        <v>995.4929090953335</v>
+        <v>980.4169119745452</v>
       </c>
       <c r="D14" t="n">
-        <v>995.4929090953335</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E14" t="n">
-        <v>995.4929090953335</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F14" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U14" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V14" t="n">
-        <v>1717.224081305859</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W14" t="n">
-        <v>1364.455426035745</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X14" t="n">
-        <v>1364.455426035745</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="Y14" t="n">
-        <v>1364.455426035745</v>
+        <v>1367.016752038667</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
@@ -5381,28 +5381,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.169209714603</v>
+        <v>2055.787411325319</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.991705784318</v>
+        <v>1827.609907395033</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.839597552575</v>
+        <v>1592.45779916329</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.602240824373</v>
+        <v>1338.220442435089</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.750740618841</v>
+        <v>1130.368942229556</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.990441853887</v>
+        <v>922.6086434646021</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F16" t="n">
-        <v>568.6656403223806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
         <v>48.81975253256327</v>
@@ -5469,19 +5469,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V16" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>269.7874484552829</v>
+        <v>1349.859140959391</v>
       </c>
       <c r="C17" t="n">
-        <v>269.7874484552829</v>
+        <v>980.8966240189795</v>
       </c>
       <c r="D17" t="n">
-        <v>269.7874484552829</v>
+        <v>622.6309254122291</v>
       </c>
       <c r="E17" t="n">
-        <v>269.7874484552829</v>
+        <v>236.8426728139848</v>
       </c>
       <c r="F17" t="n">
-        <v>269.7874484552829</v>
+        <v>236.8426728139848</v>
       </c>
       <c r="G17" t="n">
-        <v>269.7874484552829</v>
+        <v>236.8426728139848</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T17" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U17" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V17" t="n">
-        <v>1386.161193962289</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W17" t="n">
-        <v>1033.392538692174</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="X17" t="n">
-        <v>659.9267804310946</v>
+        <v>1736.458981023513</v>
       </c>
       <c r="Y17" t="n">
-        <v>269.7874484552829</v>
+        <v>1736.458981023513</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C18" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D18" t="n">
-        <v>527.3577783406021</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E18" t="n">
-        <v>368.1203233351466</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F18" t="n">
-        <v>221.5857653620315</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5618,28 +5618,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W18" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X18" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y18" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>123.721849281329</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="F19" t="n">
         <v>48.81975253256327</v>
@@ -5703,22 +5703,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>412.9009368039367</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>123.721849281329</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V19" t="n">
-        <v>123.721849281329</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W19" t="n">
-        <v>123.721849281329</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X19" t="n">
-        <v>123.721849281329</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y19" t="n">
-        <v>123.721849281329</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1455.251792695598</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C20" t="n">
-        <v>1086.289275755186</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D20" t="n">
-        <v>1086.289275755186</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E20" t="n">
-        <v>1086.289275755186</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F20" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G20" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
@@ -5755,7 +5755,7 @@
         <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
         <v>795.0052981540045</v>
@@ -5764,7 +5764,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
@@ -5779,25 +5779,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>2040.094374027286</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="U20" t="n">
-        <v>1786.314680039169</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="V20" t="n">
-        <v>1455.251792695598</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="W20" t="n">
-        <v>1455.251792695598</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X20" t="n">
-        <v>1455.251792695598</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y20" t="n">
-        <v>1455.251792695598</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
         <v>1557.865593173221</v>
@@ -5861,22 +5861,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424718</v>
+        <v>2121.953872694535</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>1893.77636876425</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1658.624260532507</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534488</v>
+        <v>1404.386903804306</v>
       </c>
       <c r="X21" t="n">
-        <v>1156.990441853887</v>
+        <v>1196.535403598773</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.990441853887</v>
+        <v>988.7751048338188</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>458.9897048505185</v>
+        <v>640.638169680758</v>
       </c>
       <c r="C22" t="n">
-        <v>458.9897048505185</v>
+        <v>640.638169680758</v>
       </c>
       <c r="D22" t="n">
-        <v>458.9897048505185</v>
+        <v>490.5215302684222</v>
       </c>
       <c r="E22" t="n">
-        <v>364.8099152070275</v>
+        <v>342.6084366860291</v>
       </c>
       <c r="F22" t="n">
-        <v>217.9199677091171</v>
+        <v>195.7184891881188</v>
       </c>
       <c r="G22" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7184891881188</v>
       </c>
       <c r="H22" t="n">
         <v>48.81975253256327</v>
@@ -5919,43 +5919,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O22" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Y22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>825.27311706874</v>
+        <v>1370.556243950357</v>
       </c>
       <c r="C23" t="n">
-        <v>825.27311706874</v>
+        <v>1370.556243950357</v>
       </c>
       <c r="D23" t="n">
-        <v>467.0074184619895</v>
+        <v>1012.290545343606</v>
       </c>
       <c r="E23" t="n">
-        <v>467.0074184619895</v>
+        <v>1012.290545343606</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0074184619895</v>
+        <v>601.304640553999</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256327</v>
+        <v>183.1169746245727</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256327</v>
@@ -6022,19 +6022,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>2269.170258007626</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V23" t="n">
-        <v>1938.107370664056</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W23" t="n">
-        <v>1585.338715393942</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X23" t="n">
-        <v>1211.872957132862</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="Y23" t="n">
-        <v>1211.872957132862</v>
+        <v>1757.156084014479</v>
       </c>
     </row>
     <row r="24">
@@ -6080,13 +6080,13 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1746.002248079783</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O24" t="n">
-        <v>2158.207869599012</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P24" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>367.8725748728059</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C25" t="n">
-        <v>198.936391944899</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D25" t="n">
         <v>48.81975253256327</v>
@@ -6180,19 +6180,19 @@
         <v>640.638169680758</v>
       </c>
       <c r="U25" t="n">
-        <v>640.638169680758</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V25" t="n">
-        <v>385.9536814748711</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="W25" t="n">
-        <v>385.9536814748711</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X25" t="n">
-        <v>385.9536814748711</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y25" t="n">
-        <v>385.9536814748711</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>48.81975253256327</v>
+        <v>1346.319649047701</v>
       </c>
       <c r="C26" t="n">
-        <v>48.81975253256327</v>
+        <v>977.3571321072895</v>
       </c>
       <c r="D26" t="n">
-        <v>48.81975253256327</v>
+        <v>619.0914335005391</v>
       </c>
       <c r="E26" t="n">
-        <v>48.81975253256327</v>
+        <v>233.3031809022949</v>
       </c>
       <c r="F26" t="n">
-        <v>48.81975253256327</v>
+        <v>233.3031809022949</v>
       </c>
       <c r="G26" t="n">
         <v>48.81975253256327</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U26" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V26" t="n">
-        <v>1386.161193962289</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W26" t="n">
-        <v>1033.392538692174</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="X26" t="n">
-        <v>659.9267804310946</v>
+        <v>1736.458981023513</v>
       </c>
       <c r="Y26" t="n">
-        <v>435.419592596685</v>
+        <v>1346.319649047701</v>
       </c>
     </row>
     <row r="27">
@@ -6287,16 +6287,16 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>461.1913169713854</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>301.9538619659299</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H27" t="n">
         <v>48.81975253256327</v>
@@ -6317,13 +6317,13 @@
         <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O27" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
@@ -6366,13 +6366,13 @@
         <v>640.638169680758</v>
       </c>
       <c r="D28" t="n">
-        <v>512.7230087894206</v>
+        <v>490.5215302684222</v>
       </c>
       <c r="E28" t="n">
-        <v>364.8099152070275</v>
+        <v>342.6084366860291</v>
       </c>
       <c r="F28" t="n">
-        <v>217.9199677091171</v>
+        <v>195.7184891881188</v>
       </c>
       <c r="G28" t="n">
         <v>48.81975253256327</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>48.81975253256327</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="C29" t="n">
-        <v>48.81975253256327</v>
+        <v>733.5206204850722</v>
       </c>
       <c r="D29" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="E29" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F29" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H29" t="n">
         <v>48.81975253256327</v>
@@ -6487,28 +6487,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T29" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U29" t="n">
-        <v>1717.224081305859</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V29" t="n">
-        <v>1386.161193962289</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="W29" t="n">
-        <v>1033.392538692174</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="X29" t="n">
-        <v>659.9267804310946</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="Y29" t="n">
-        <v>269.7874484552829</v>
+        <v>1102.483137425484</v>
       </c>
     </row>
     <row r="30">
@@ -6524,43 +6524,43 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D30" t="n">
-        <v>547.7315422628061</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E30" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F30" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G30" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225003</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478935</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>412.6486187827406</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="C31" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D31" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E31" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H31" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I31" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J31" t="n">
         <v>48.81975253256327</v>
@@ -6657,16 +6657,16 @@
         <v>640.638169680758</v>
       </c>
       <c r="V31" t="n">
-        <v>640.638169680758</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="W31" t="n">
-        <v>640.638169680758</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="X31" t="n">
-        <v>412.6486187827406</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="Y31" t="n">
-        <v>412.6486187827406</v>
+        <v>385.9536814748711</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>776.0479680797255</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C32" t="n">
-        <v>407.0854511393138</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D32" t="n">
-        <v>48.81975253256327</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E32" t="n">
-        <v>48.81975253256327</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F32" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G32" t="n">
         <v>48.81975253256327</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="S32" t="n">
-        <v>2440.987626628164</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="T32" t="n">
-        <v>2440.987626628164</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="U32" t="n">
-        <v>2440.987626628164</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="V32" t="n">
-        <v>2109.924739284593</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="W32" t="n">
-        <v>1926.252898380739</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X32" t="n">
-        <v>1552.787140119659</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y32" t="n">
-        <v>1162.647808143847</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>776.0740854914872</v>
       </c>
       <c r="C33" t="n">
-        <v>641.5560627232235</v>
+        <v>601.6210562103602</v>
       </c>
       <c r="D33" t="n">
-        <v>492.6216530619722</v>
+        <v>452.6866465491088</v>
       </c>
       <c r="E33" t="n">
-        <v>333.3841980565167</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="F33" t="n">
-        <v>186.8496400834017</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H33" t="n">
         <v>48.81975253256327</v>
@@ -6803,28 +6803,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2437.227244632229</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2276.829513525103</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2077.468190372272</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1849.290686441986</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1614.138578210243</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1359.901221482042</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1152.049721276509</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>944.2894225115551</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1849.169209479969</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="C34" t="n">
-        <v>1849.169209479969</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="D34" t="n">
-        <v>1849.169209479969</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="E34" t="n">
-        <v>1849.169209479969</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="F34" t="n">
-        <v>1849.169209479969</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="G34" t="n">
-        <v>1849.169209479969</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K34" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L34" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N34" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O34" t="n">
-        <v>2374.023479227556</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T34" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U34" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="V34" t="n">
-        <v>2440.987626628164</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="W34" t="n">
-        <v>2151.570456591203</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="X34" t="n">
-        <v>2151.570456591203</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="Y34" t="n">
-        <v>1930.777877447673</v>
+        <v>376.5611201562124</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1482.679287035396</v>
+        <v>1081.786034434518</v>
       </c>
       <c r="C35" t="n">
-        <v>1482.679287035396</v>
+        <v>1081.786034434518</v>
       </c>
       <c r="D35" t="n">
-        <v>1263.781575849841</v>
+        <v>723.5203358277677</v>
       </c>
       <c r="E35" t="n">
-        <v>877.9933232515971</v>
+        <v>723.5203358277677</v>
       </c>
       <c r="F35" t="n">
-        <v>467.0074184619895</v>
+        <v>723.5203358277677</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
@@ -6964,25 +6964,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T35" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U35" t="n">
-        <v>2187.207932640046</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V35" t="n">
-        <v>1856.145045296475</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="W35" t="n">
-        <v>1856.145045296475</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="X35" t="n">
-        <v>1482.679287035396</v>
+        <v>1081.786034434518</v>
       </c>
       <c r="Y35" t="n">
-        <v>1482.679287035396</v>
+        <v>1081.786034434518</v>
       </c>
     </row>
     <row r="36">
@@ -6995,19 +6995,19 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C36" t="n">
-        <v>547.7315422628061</v>
+        <v>655.0846205472362</v>
       </c>
       <c r="D36" t="n">
-        <v>398.7971326015548</v>
+        <v>506.150210885985</v>
       </c>
       <c r="E36" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F36" t="n">
-        <v>114.9862139017798</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G36" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H36" t="n">
         <v>114.9862139017798</v>
@@ -7016,25 +7016,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O36" t="n">
-        <v>2158.207869599012</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>259.9869404984918</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="C37" t="n">
-        <v>259.9869404984918</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="D37" t="n">
-        <v>259.9869404984918</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E37" t="n">
-        <v>259.9869404984918</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F37" t="n">
-        <v>259.9869404984918</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G37" t="n">
-        <v>259.9869404984918</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H37" t="n">
         <v>188.1684137834047</v>
@@ -7119,28 +7119,28 @@
         <v>640.638169680758</v>
       </c>
       <c r="R37" t="n">
-        <v>487.9764913965091</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S37" t="n">
-        <v>487.9764913965091</v>
+        <v>442.8529019892916</v>
       </c>
       <c r="T37" t="n">
-        <v>487.9764913965091</v>
+        <v>442.8529019892916</v>
       </c>
       <c r="U37" t="n">
-        <v>487.9764913965091</v>
+        <v>442.8529019892916</v>
       </c>
       <c r="V37" t="n">
-        <v>487.9764913965091</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="W37" t="n">
-        <v>487.9764913965091</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="X37" t="n">
-        <v>259.9869404984918</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="Y37" t="n">
-        <v>259.9869404984918</v>
+        <v>188.1684137834047</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1831.233689984038</v>
+        <v>980.4169119745452</v>
       </c>
       <c r="C38" t="n">
-        <v>1831.233689984038</v>
+        <v>611.4543950341335</v>
       </c>
       <c r="D38" t="n">
-        <v>1755.365134694847</v>
+        <v>253.188696427383</v>
       </c>
       <c r="E38" t="n">
-        <v>1369.576882096602</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F38" t="n">
-        <v>958.5909773069948</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G38" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H38" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I38" t="n">
         <v>48.81975253256327</v>
@@ -7204,22 +7204,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2221.37302195985</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U38" t="n">
-        <v>2221.37302195985</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V38" t="n">
-        <v>2221.37302195985</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W38" t="n">
-        <v>2221.37302195985</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X38" t="n">
-        <v>2221.37302195985</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="Y38" t="n">
-        <v>1831.233689984038</v>
+        <v>1367.016752038667</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C39" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D39" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E39" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F39" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G39" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7289,16 +7289,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V39" t="n">
-        <v>1795.401172494432</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W39" t="n">
-        <v>1541.163815766231</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X39" t="n">
-        <v>1333.312315560698</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96.77459395226342</v>
+        <v>123.4837667669759</v>
       </c>
       <c r="C40" t="n">
-        <v>96.77459395226342</v>
+        <v>123.4837667669759</v>
       </c>
       <c r="D40" t="n">
-        <v>96.77459395226342</v>
+        <v>123.4837667669759</v>
       </c>
       <c r="E40" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F40" t="n">
         <v>48.81975253256327</v>
@@ -7362,22 +7362,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T40" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U40" t="n">
-        <v>351.4590821581503</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="V40" t="n">
-        <v>96.77459395226342</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="W40" t="n">
-        <v>96.77459395226342</v>
+        <v>123.4837667669759</v>
       </c>
       <c r="X40" t="n">
-        <v>96.77459395226342</v>
+        <v>123.4837667669759</v>
       </c>
       <c r="Y40" t="n">
-        <v>96.77459395226342</v>
+        <v>123.4837667669759</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1551.245491941685</v>
+        <v>1267.631526924731</v>
       </c>
       <c r="C41" t="n">
-        <v>1182.282975001274</v>
+        <v>898.669009984319</v>
       </c>
       <c r="D41" t="n">
-        <v>1182.282975001274</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="E41" t="n">
-        <v>796.4947224030295</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="F41" t="n">
-        <v>796.4947224030295</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G41" t="n">
-        <v>378.3070564736033</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T41" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U41" t="n">
-        <v>1717.224081305859</v>
+        <v>1951.463069538415</v>
       </c>
       <c r="V41" t="n">
-        <v>1551.245491941685</v>
+        <v>1620.400182194845</v>
       </c>
       <c r="W41" t="n">
-        <v>1551.245491941685</v>
+        <v>1267.631526924731</v>
       </c>
       <c r="X41" t="n">
-        <v>1551.245491941685</v>
+        <v>1267.631526924731</v>
       </c>
       <c r="Y41" t="n">
-        <v>1551.245491941685</v>
+        <v>1267.631526924731</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C42" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D42" t="n">
-        <v>398.7971326015548</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E42" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F42" t="n">
-        <v>155.4193039928149</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G42" t="n">
         <v>155.4193039928149</v>
@@ -7490,16 +7490,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N42" t="n">
         <v>1557.865593173221</v>
@@ -7514,28 +7514,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684675</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T42" t="n">
-        <v>2023.578676424718</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494432</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.249064262689</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.81975253256327</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81975253256327</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="D43" t="n">
-        <v>48.81975253256327</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256327</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256327</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="G43" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H43" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I43" t="n">
         <v>48.81975253256327</v>
@@ -7599,22 +7599,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T43" t="n">
-        <v>640.638169680758</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="U43" t="n">
-        <v>640.638169680758</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="V43" t="n">
-        <v>640.638169680758</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="W43" t="n">
-        <v>351.2209996437974</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="X43" t="n">
-        <v>123.23144874578</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="Y43" t="n">
-        <v>123.23144874578</v>
+        <v>515.9097814070539</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1061.110552652243</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="C44" t="n">
-        <v>692.1480357118312</v>
+        <v>1388.193567074067</v>
       </c>
       <c r="D44" t="n">
-        <v>333.8823371050807</v>
+        <v>1388.193567074067</v>
       </c>
       <c r="E44" t="n">
-        <v>333.8823371050807</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F44" t="n">
-        <v>48.81975253256327</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G44" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H44" t="n">
         <v>48.81975253256327</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U44" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V44" t="n">
-        <v>2190.61837996229</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W44" t="n">
-        <v>1837.849724692176</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X44" t="n">
-        <v>1837.849724692176</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="Y44" t="n">
-        <v>1447.710392716365</v>
+        <v>1757.156084014479</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>779.8344674874215</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="C45" t="n">
-        <v>605.3814382062945</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D45" t="n">
-        <v>456.4470285450433</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E45" t="n">
-        <v>297.2095735395878</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F45" t="n">
-        <v>150.6750155664728</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G45" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H45" t="n">
         <v>48.81975253256327</v>
@@ -7733,10 +7733,10 @@
         <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
         <v>1557.865593173221</v>
@@ -7751,28 +7751,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S45" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T45" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V45" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W45" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y45" t="n">
-        <v>948.0498045074896</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.04191212118991</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="C46" t="n">
-        <v>62.04191212118991</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="D46" t="n">
-        <v>62.04191212118991</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="E46" t="n">
-        <v>62.04191212118991</v>
+        <v>276.6866948089184</v>
       </c>
       <c r="F46" t="n">
-        <v>62.04191212118991</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7833,25 +7833,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T46" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U46" t="n">
-        <v>351.4590821581505</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V46" t="n">
-        <v>351.4590821581505</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W46" t="n">
-        <v>62.04191212118991</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="X46" t="n">
-        <v>62.04191212118991</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.04191212118991</v>
+        <v>424.5997883913116</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8063,19 +8063,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,19 +8537,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>287.1006199003857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>354.1197822338756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194304</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>128.4257434817937</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>275.6680385918564</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11381,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>245.6177531937813</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>104.3559917169383</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>341.5423758875112</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>141.3464342174087</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>10.9460064466986</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>74.16824395813738</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>151.5565796077591</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>228.3380131155146</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>370.3431332712561</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>48.05747717687808</v>
+        <v>31.8866475515949</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>74.16824395813738</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,10 +23749,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>267.9097042930627</v>
+        <v>140.0497398230222</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>127.2750392816568</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>93.09374531734976</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>132.3311100301909</v>
       </c>
       <c r="G19" t="n">
         <v>167.4092130247883</v>
@@ -23943,7 +23943,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>280.4547302780019</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>190.6873493490949</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>97.39144430711919</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>58.24193217968238</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>53.19597089951314</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0547409226243</v>
+        <v>11.62499163362438</v>
       </c>
       <c r="I22" t="n">
         <v>137.955174638333</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
@@ -24217,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>193.2381810305402</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24262,7 +24262,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>81.14270211390431</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.9316846458927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24420,13 +24420,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>239.0477053310879</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>231.3671951840977</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>163.9758226999882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>61.77024252613231</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>21.9794637357884</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>21.97946373578841</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>163.9758226999882</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>3.021613249328766</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,7 +24697,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>116.479562392348</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>13.31621162768039</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>154.4568513242435</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>41.66858347344031</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
@@ -24976,10 +24976,10 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>167.4058462225971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>92.88627525581323</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>53.35061880807839</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.03939889391042</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>137.955174638333</v>
@@ -25128,22 +25128,22 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>216.1612248425812</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>137.9743075469842</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>232.7199350644348</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25235,22 +25235,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>106.2795475015859</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>21.74148333600759</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>85.95439947468806</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>37.44704598407326</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>18.0705824620004</v>
       </c>
       <c r="T37" t="n">
         <v>225.4598605480533</v>
@@ -25371,13 +25371,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>279.573171884383</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>179.6051156163902</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>31.12404080756153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>72.51658855450071</v>
       </c>
       <c r="F40" t="n">
-        <v>97.9457550174281</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.4092130247883</v>
@@ -25602,16 +25602,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>163.496905604254</v>
       </c>
       <c r="V41" t="n">
-        <v>163.4334549996029</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25718,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>61.77024252613234</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>39.626077405407</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.1644009308527</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>52.22830032617343</v>
@@ -25839,7 +25839,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>101.9787561570862</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>203.0245595896461</v>
       </c>
       <c r="F44" t="n">
-        <v>124.6640870149192</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
         <v>217.4184586216305</v>
@@ -25924,7 +25924,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>25.71133221314653</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25958,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>35.81287827175962</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>76.88751609196396</v>
       </c>
       <c r="G46" t="n">
-        <v>154.319275032048</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26073,19 +26073,19 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>649211.699154123</v>
+        <v>649211.6991541228</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649211.699154123</v>
+        <v>649211.6991541228</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>649211.6991541228</v>
+        <v>649211.699154123</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>649211.699154123</v>
+        <v>649211.6991541228</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649211.699154123</v>
+        <v>649211.6991541228</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649211.6991541228</v>
+        <v>649211.699154123</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649211.6991541228</v>
+        <v>649211.699154123</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649211.6991541228</v>
+        <v>649211.699154123</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649211.6991541228</v>
+        <v>649211.699154123</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>352485.1114947452</v>
+        <v>352485.1114947454</v>
       </c>
       <c r="F2" t="n">
         <v>352485.1114947453</v>
       </c>
       <c r="G2" t="n">
-        <v>352485.1114947453</v>
+        <v>352485.1114947452</v>
       </c>
       <c r="H2" t="n">
-        <v>352485.1114947455</v>
+        <v>352485.1114947451</v>
       </c>
       <c r="I2" t="n">
         <v>352485.1114947452</v>
       </c>
       <c r="J2" t="n">
+        <v>352485.1114947453</v>
+      </c>
+      <c r="K2" t="n">
         <v>352485.1114947452</v>
       </c>
-      <c r="K2" t="n">
-        <v>352485.1114947454</v>
-      </c>
       <c r="L2" t="n">
-        <v>352485.1114947451</v>
+        <v>352485.1114947453</v>
       </c>
       <c r="M2" t="n">
         <v>352485.1114947453</v>
       </c>
       <c r="N2" t="n">
+        <v>352485.1114947454</v>
+      </c>
+      <c r="O2" t="n">
+        <v>352485.1114947454</v>
+      </c>
+      <c r="P2" t="n">
         <v>352485.1114947453</v>
-      </c>
-      <c r="O2" t="n">
-        <v>352485.1114947453</v>
-      </c>
-      <c r="P2" t="n">
-        <v>352485.1114947452</v>
       </c>
     </row>
     <row r="3">
@@ -26435,10 +26435,10 @@
         <v>53162.14282437483</v>
       </c>
       <c r="H4" t="n">
-        <v>53162.14282437483</v>
+        <v>53162.14282437484</v>
       </c>
       <c r="I4" t="n">
-        <v>53162.14282437483</v>
+        <v>53162.14282437484</v>
       </c>
       <c r="J4" t="n">
         <v>53162.14282437483</v>
@@ -26450,16 +26450,16 @@
         <v>53162.14282437483</v>
       </c>
       <c r="M4" t="n">
+        <v>53162.14282437483</v>
+      </c>
+      <c r="N4" t="n">
         <v>53162.14282437484</v>
-      </c>
-      <c r="N4" t="n">
-        <v>53162.14282437483</v>
       </c>
       <c r="O4" t="n">
         <v>53162.14282437483</v>
       </c>
       <c r="P4" t="n">
-        <v>53162.14282437483</v>
+        <v>53162.14282437484</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>75295.91855448089</v>
       </c>
       <c r="C6" t="n">
-        <v>156065.3500860284</v>
+        <v>156065.3500860286</v>
       </c>
       <c r="D6" t="n">
-        <v>156065.3500860285</v>
+        <v>156065.3500860286</v>
       </c>
       <c r="E6" t="n">
-        <v>-114248.3684827483</v>
+        <v>-121217.2930564803</v>
       </c>
       <c r="F6" t="n">
-        <v>255186.930650032</v>
+        <v>248218.0060762998</v>
       </c>
       <c r="G6" t="n">
-        <v>255186.930650032</v>
+        <v>248218.0060762997</v>
       </c>
       <c r="H6" t="n">
-        <v>255186.9306500322</v>
+        <v>248218.0060762996</v>
       </c>
       <c r="I6" t="n">
-        <v>255186.9306500319</v>
+        <v>248218.0060762997</v>
       </c>
       <c r="J6" t="n">
-        <v>192126.9880509257</v>
+        <v>185158.0634771936</v>
       </c>
       <c r="K6" t="n">
-        <v>255186.9306500321</v>
+        <v>248218.0060762997</v>
       </c>
       <c r="L6" t="n">
-        <v>255186.9306500319</v>
+        <v>248218.0060762998</v>
       </c>
       <c r="M6" t="n">
-        <v>163172.685368939</v>
+        <v>156203.7607952067</v>
       </c>
       <c r="N6" t="n">
-        <v>255186.930650032</v>
+        <v>248218.0060762998</v>
       </c>
       <c r="O6" t="n">
-        <v>255186.930650032</v>
+        <v>248218.0060762998</v>
       </c>
       <c r="P6" t="n">
-        <v>255186.9306500319</v>
+        <v>248218.0060762998</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,22 +27387,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>179.3549983061512</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>318.0277841748236</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>190.4435618983388</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>60.50207587874957</v>
       </c>
     </row>
     <row r="4">
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366916</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>334.4055473171627</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>147.6302790004598</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.43874084280178</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27751,16 +27751,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27794,10 +27794,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>47.2544399028796</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>196.131336269458</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27988,19 +27988,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>81.32645443465279</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>201.5604157372733</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28070,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3886183277161</v>
       </c>
     </row>
     <row r="11">
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K21" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R21" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L22" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P22" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35497,10 +35497,10 @@
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>309.3596570595963</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K21" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N21" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N24" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N27" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009465</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009465</v>
@@ -37402,10 +37402,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P36" t="n">
-        <v>126.9612417926721</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009465</v>
@@ -37633,7 +37633,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>238.6780311009465</v>
@@ -37867,10 +37867,10 @@
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>309.3596570595964</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N42" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -38101,13 +38101,13 @@
         <v>238.6780311009466</v>
       </c>
       <c r="L45" t="n">
-        <v>257.7341181179921</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M45" t="n">
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1442836.549680541</v>
+        <v>1478155.305006309</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8384690.708251162</v>
+        <v>8384690.708251163</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,10 +706,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -718,7 +718,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>216.6234524382191</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>68.21015448122992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>10.9492201923453</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>145.1806198985548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,11 +895,11 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>72.47049842454874</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>17.71909330984136</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>240.1685615221494</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57.16776090941368</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>57.16776090941369</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>36.43923176655773</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>151.4741327147725</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>221.8364391846913</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>356.3596225551934</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.18674943245865</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1511,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>110.3485489435109</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>134.7307170396225</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>126.3450285051683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>330.0879236394007</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>110.9382564621833</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>105.5335559456492</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>165.4810623697078</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>47.239591316294</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>13.08993799274038</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>186.1426910786074</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>166.1217587963957</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>100.8367104035704</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>13.08993799274037</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.32828347083559</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>18.97693582190609</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>26.73110927253554</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>8.14211163852981</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2177,7 +2177,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>99.9762656141835</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
         <v>225.8957288909827</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.4297492889999</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>146.3125801111237</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>132.9542498710894</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>18.84918167835429</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>47.47529300550337</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>47.47529300550314</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>182.6385940860343</v>
+        <v>181.6130739002499</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>145.4297492889999</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>15.47283882933278</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>351.6614283713542</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.4184586216305</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>166.5157685542569</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>146.5623749521075</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>251.7090653148215</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>26.731109272536</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,13 +3119,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.722778175975149</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>135.1147972906604</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>35.9764184812468</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>181.2858542056972</v>
+        <v>86.25303065895065</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.4184586216305</v>
@@ -3325,16 +3325,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3347,25 +3347,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>66.42895148672989</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>52.18293713757069</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>145.4297492890001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>195.8074150145517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>202.3252544558716</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>358.4651218525245</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>52.1829371375707</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>73.91737409206846</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>13.08993799274038</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
         <v>179.4658614532381</v>
@@ -3796,7 +3796,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>87.7449914439822</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>37.64461952290944</v>
       </c>
     </row>
     <row r="42">
@@ -3833,10 +3833,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>100.8367104035708</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>17.44731957864654</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T42" t="n">
         <v>197.3677099213027</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>137.955174638333</v>
+        <v>73.9032809402942</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>123.4811043909671</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>286.0807375749108</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>178.9058104826157</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>140.8218514367208</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>66.42895148672989</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4076,7 +4076,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>68.53353193096729</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>85.73493885277919</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V2" t="n">
-        <v>122.6530896684844</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W2" t="n">
-        <v>122.6530896684844</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X2" t="n">
-        <v>122.6530896684844</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>649.1947276839472</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C3" t="n">
-        <v>474.7416984028202</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D3" t="n">
-        <v>325.807288741569</v>
+        <v>540.5358718529395</v>
       </c>
       <c r="E3" t="n">
-        <v>166.5698337361135</v>
+        <v>381.298416847484</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>234.763858874369</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>817.4100647040152</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
         <v>41.77557929797318</v>
@@ -4530,10 +4530,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F5" t="n">
+        <v>290.2572196227447</v>
+      </c>
+      <c r="G5" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="G5" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4597,22 +4597,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.4883050441255</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,13 +4655,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>946.1590814602914</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>772.7417369109603</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>570.5551422697263</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>570.5551422697263</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>570.5551422697263</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>570.5551422697263</v>
+        <v>486.3105406908639</v>
       </c>
       <c r="X6" t="n">
-        <v>362.7036420641935</v>
+        <v>486.3105406908639</v>
       </c>
       <c r="Y6" t="n">
-        <v>362.7036420641935</v>
+        <v>278.55024192591</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
         <v>136.0777814360265</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.5536560184564</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>104.5536560184564</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>104.5536560184564</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="E8" t="n">
-        <v>104.5536560184564</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F8" t="n">
         <v>46.80844297864461</v>
@@ -4849,7 +4849,7 @@
         <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>567.60420440717</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C9" t="n">
-        <v>567.60420440717</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D9" t="n">
-        <v>418.6697947459187</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E9" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4919,16 +4919,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>811.0529810512701</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>567.60420440717</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>567.60420440717</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y9" t="n">
-        <v>567.60420440717</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -5007,7 +5007,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1649.955042051474</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="C11" t="n">
-        <v>1649.955042051474</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.955042051474</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.16678945323</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F11" t="n">
-        <v>853.1808846636227</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G11" t="n">
-        <v>434.9932187341964</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H11" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
@@ -5044,7 +5044,7 @@
         <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L11" t="n">
         <v>795.0052981540048</v>
@@ -5053,7 +5053,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T11" t="n">
-        <v>2040.094374027286</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U11" t="n">
-        <v>2040.094374027286</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V11" t="n">
-        <v>2040.094374027286</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="W11" t="n">
-        <v>2040.094374027286</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="X11" t="n">
-        <v>2040.094374027286</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="Y11" t="n">
-        <v>1649.955042051474</v>
+        <v>1207.480627192637</v>
       </c>
     </row>
     <row r="12">
@@ -5120,16 +5120,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339188</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593121</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N12" t="n">
         <v>1557.865593173221</v>
@@ -5138,7 +5138,7 @@
         <v>1970.07121469245</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5159,13 +5159,13 @@
         <v>1617.898960206178</v>
       </c>
       <c r="W12" t="n">
-        <v>1363.661603477976</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X12" t="n">
-        <v>1155.810103272443</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y12" t="n">
-        <v>948.0498045074896</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="13">
@@ -5202,7 +5202,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371203</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
@@ -5229,22 +5229,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>412.9009368039367</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>276.8093034305806</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V13" t="n">
-        <v>276.8093034305806</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W13" t="n">
-        <v>276.8093034305806</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X13" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>980.4169119745452</v>
+        <v>1221.758188000646</v>
       </c>
       <c r="C14" t="n">
-        <v>980.4169119745452</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="D14" t="n">
         <v>852.7956710602338</v>
@@ -5278,19 +5278,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N14" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O14" t="n">
         <v>2037.925350935285</v>
@@ -5305,25 +5305,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T14" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U14" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V14" t="n">
-        <v>2109.924739284593</v>
+        <v>1928.646091352029</v>
       </c>
       <c r="W14" t="n">
-        <v>1757.156084014479</v>
+        <v>1595.223946261725</v>
       </c>
       <c r="X14" t="n">
-        <v>1757.156084014479</v>
+        <v>1221.758188000646</v>
       </c>
       <c r="Y14" t="n">
-        <v>1367.016752038667</v>
+        <v>1221.758188000646</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>748.1556141834751</v>
+        <v>610.1257266326368</v>
       </c>
       <c r="D15" t="n">
-        <v>599.2212045222238</v>
+        <v>461.1913169713854</v>
       </c>
       <c r="E15" t="n">
-        <v>439.9837495167684</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F15" t="n">
-        <v>293.4491915436533</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G15" t="n">
         <v>155.4193039928149</v>
@@ -5357,25 +5357,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561438</v>
       </c>
       <c r="N15" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O15" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5387,22 +5387,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2055.787411325319</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>1827.609907395033</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1592.45779916329</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1338.220442435089</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1130.368942229556</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>922.6086434646021</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="C16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="H16" t="n">
         <v>48.81975253256327</v>
@@ -5439,7 +5439,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K16" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371203</v>
       </c>
       <c r="L16" t="n">
         <v>206.6297039190408</v>
@@ -5469,19 +5469,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V16" t="n">
-        <v>338.2369225695239</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="X16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791075</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1349.859140959391</v>
+        <v>1653.419779522975</v>
       </c>
       <c r="C17" t="n">
-        <v>980.8966240189795</v>
+        <v>1284.457262582563</v>
       </c>
       <c r="D17" t="n">
-        <v>622.6309254122291</v>
+        <v>926.1915639758126</v>
       </c>
       <c r="E17" t="n">
-        <v>236.8426728139848</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="F17" t="n">
-        <v>236.8426728139848</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G17" t="n">
-        <v>236.8426728139848</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H17" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I17" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J17" t="n">
         <v>145.9660485697318</v>
       </c>
       <c r="K17" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P17" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q17" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T17" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U17" t="n">
-        <v>2440.987626628164</v>
+        <v>1984.482666866546</v>
       </c>
       <c r="V17" t="n">
-        <v>2109.924739284593</v>
+        <v>1653.419779522975</v>
       </c>
       <c r="W17" t="n">
-        <v>2109.924739284593</v>
+        <v>1653.419779522975</v>
       </c>
       <c r="X17" t="n">
-        <v>1736.458981023513</v>
+        <v>1653.419779522975</v>
       </c>
       <c r="Y17" t="n">
-        <v>1736.458981023513</v>
+        <v>1653.419779522975</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>779.8344674874215</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C18" t="n">
-        <v>605.3814382062945</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D18" t="n">
-        <v>456.4470285450433</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E18" t="n">
-        <v>297.2095735395878</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F18" t="n">
-        <v>150.6750155664728</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G18" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="H18" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="I18" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J18" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K18" t="n">
         <v>285.1110033225004</v>
@@ -5606,40 +5606,40 @@
         <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O18" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S18" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U18" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V18" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W18" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X18" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y18" t="n">
-        <v>948.0498045074896</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.04191212118991</v>
+        <v>412.6486187827409</v>
       </c>
       <c r="C19" t="n">
-        <v>62.04191212118991</v>
+        <v>243.712435854834</v>
       </c>
       <c r="D19" t="n">
-        <v>62.04191212118991</v>
+        <v>93.59579644249823</v>
       </c>
       <c r="E19" t="n">
-        <v>62.04191212118991</v>
+        <v>93.59579644249823</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>93.59579644249823</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I19" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J19" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K19" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371203</v>
       </c>
       <c r="L19" t="n">
         <v>206.6297039190408</v>
@@ -5706,19 +5706,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V19" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W19" t="n">
-        <v>62.04191212118991</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X19" t="n">
-        <v>62.04191212118991</v>
+        <v>412.6486187827409</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.04191212118991</v>
+        <v>412.6486187827409</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1263.781575849841</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="C20" t="n">
-        <v>1263.781575849841</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D20" t="n">
-        <v>1263.781575849841</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E20" t="n">
         <v>877.9933232515971</v>
@@ -5755,10 +5755,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.987626628164</v>
+        <v>2421.819004585834</v>
       </c>
       <c r="S20" t="n">
-        <v>2440.987626628164</v>
+        <v>2421.819004585834</v>
       </c>
       <c r="T20" t="n">
-        <v>2413.986506150855</v>
+        <v>2202.204399917521</v>
       </c>
       <c r="U20" t="n">
-        <v>2413.986506150855</v>
+        <v>1948.424705929403</v>
       </c>
       <c r="V20" t="n">
-        <v>2413.986506150855</v>
+        <v>1617.361818585833</v>
       </c>
       <c r="W20" t="n">
-        <v>2413.986506150855</v>
+        <v>1264.593163315719</v>
       </c>
       <c r="X20" t="n">
-        <v>2040.520747889775</v>
+        <v>1264.593163315719</v>
       </c>
       <c r="Y20" t="n">
-        <v>1650.381415913963</v>
+        <v>1264.593163315719</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.7751048338188</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C21" t="n">
-        <v>814.3220755526918</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D21" t="n">
-        <v>665.3876658914405</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E21" t="n">
-        <v>506.150210885985</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6156529128699</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H21" t="n">
         <v>114.9862139017798</v>
@@ -5837,10 +5837,10 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>728.4044351658747</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N21" t="n">
         <v>1557.865593173221</v>
@@ -5861,22 +5861,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2121.953872694535</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U21" t="n">
-        <v>1893.77636876425</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V21" t="n">
-        <v>1658.624260532507</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W21" t="n">
-        <v>1404.386903804306</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X21" t="n">
-        <v>1196.535403598773</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y21" t="n">
-        <v>988.7751048338188</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C22" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
-        <v>490.5215302684222</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E22" t="n">
-        <v>342.6084366860291</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>195.7184891881188</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>195.7184891881188</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
         <v>48.81975253256327</v>
@@ -5919,43 +5919,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O22" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T22" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U22" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V22" t="n">
-        <v>640.638169680758</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="W22" t="n">
-        <v>640.638169680758</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X22" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y22" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1370.556243950357</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="C23" t="n">
-        <v>1370.556243950357</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D23" t="n">
-        <v>1012.290545343606</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E23" t="n">
-        <v>1012.290545343606</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F23" t="n">
-        <v>601.304640553999</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
-        <v>183.1169746245727</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256327</v>
@@ -5992,10 +5992,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S23" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T23" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U23" t="n">
-        <v>2440.987626628164</v>
+        <v>1951.964197841094</v>
       </c>
       <c r="V23" t="n">
-        <v>2109.924739284593</v>
+        <v>1620.901310497523</v>
       </c>
       <c r="W23" t="n">
-        <v>1757.156084014479</v>
+        <v>1268.132655227409</v>
       </c>
       <c r="X23" t="n">
-        <v>1757.156084014479</v>
+        <v>1268.132655227409</v>
       </c>
       <c r="Y23" t="n">
-        <v>1757.156084014479</v>
+        <v>877.9933232515971</v>
       </c>
     </row>
     <row r="24">
@@ -6074,10 +6074,10 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658747</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N24" t="n">
         <v>1557.865593173221</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="F25" t="n">
         <v>48.81975253256327</v>
@@ -6156,43 +6156,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O25" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>351.4590821581503</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V25" t="n">
-        <v>96.77459395226342</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W25" t="n">
-        <v>48.81975253256327</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="X25" t="n">
-        <v>48.81975253256327</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256327</v>
+        <v>96.77459395226364</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1346.319649047701</v>
+        <v>643.2532067163627</v>
       </c>
       <c r="C26" t="n">
-        <v>977.3571321072895</v>
+        <v>643.2532067163627</v>
       </c>
       <c r="D26" t="n">
-        <v>619.0914335005391</v>
+        <v>643.2532067163627</v>
       </c>
       <c r="E26" t="n">
-        <v>233.3031809022949</v>
+        <v>643.2532067163627</v>
       </c>
       <c r="F26" t="n">
-        <v>233.3031809022949</v>
+        <v>232.2673019267551</v>
       </c>
       <c r="G26" t="n">
         <v>48.81975253256327</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T26" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U26" t="n">
-        <v>2440.987626628164</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V26" t="n">
-        <v>2109.924739284593</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W26" t="n">
-        <v>2109.924739284593</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="X26" t="n">
-        <v>1736.458981023513</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="Y26" t="n">
-        <v>1346.319649047701</v>
+        <v>643.2532067163627</v>
       </c>
     </row>
     <row r="27">
@@ -6308,10 +6308,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478935</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M27" t="n">
         <v>1158.640861843456</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>640.638169680758</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="C28" t="n">
-        <v>640.638169680758</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="D28" t="n">
-        <v>490.5215302684222</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="E28" t="n">
-        <v>342.6084366860291</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="F28" t="n">
-        <v>195.7184891881188</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="G28" t="n">
         <v>48.81975253256327</v>
@@ -6393,43 +6393,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N28" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O28" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>640.638169680758</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V28" t="n">
-        <v>640.638169680758</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W28" t="n">
-        <v>640.638169680758</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X28" t="n">
-        <v>640.638169680758</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y28" t="n">
-        <v>640.638169680758</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1102.483137425484</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="C29" t="n">
-        <v>733.5206204850722</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D29" t="n">
-        <v>378.3070564736033</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E29" t="n">
-        <v>378.3070564736033</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F29" t="n">
-        <v>378.3070564736033</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
         <v>48.81975253256327</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2040.094374027286</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U29" t="n">
-        <v>1786.314680039169</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V29" t="n">
-        <v>1455.251792695598</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W29" t="n">
-        <v>1102.483137425484</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="X29" t="n">
-        <v>1102.483137425484</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="Y29" t="n">
-        <v>1102.483137425484</v>
+        <v>893.6224533822362</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>81.93751399838828</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>318.2287647883253</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L30" t="n">
-        <v>697.3559079137186</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M30" t="n">
-        <v>1191.758623309281</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N30" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O30" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P30" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>217.7559354604702</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="G31" t="n">
         <v>48.81975253256327</v>
@@ -6630,43 +6630,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N31" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O31" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T31" t="n">
-        <v>640.638169680758</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U31" t="n">
-        <v>640.638169680758</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="V31" t="n">
-        <v>385.9536814748711</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="W31" t="n">
-        <v>385.9536814748711</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="X31" t="n">
-        <v>385.9536814748711</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="Y31" t="n">
-        <v>385.9536814748711</v>
+        <v>196.8625555144901</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1263.781575849841</v>
+        <v>1713.341746845651</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.781575849841</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="D32" t="n">
-        <v>1263.781575849841</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="E32" t="n">
-        <v>877.9933232515971</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="F32" t="n">
-        <v>467.0074184619895</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540045</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2413.986506150855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2413.986506150855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2413.986506150855</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U32" t="n">
-        <v>2413.986506150855</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V32" t="n">
-        <v>2413.986506150855</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W32" t="n">
-        <v>2413.986506150855</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="X32" t="n">
-        <v>2040.520747889775</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="Y32" t="n">
-        <v>1650.381415913963</v>
+        <v>1967.593327971733</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>776.0740854914872</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C33" t="n">
-        <v>601.6210562103602</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D33" t="n">
-        <v>452.6866465491088</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E33" t="n">
-        <v>293.4491915436533</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F33" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G33" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H33" t="n">
         <v>48.81975253256327</v>
@@ -6782,10 +6782,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478935</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M33" t="n">
         <v>1158.640861843456</v>
@@ -6803,28 +6803,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2437.227244632229</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S33" t="n">
-        <v>2276.829513525103</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T33" t="n">
-        <v>2077.468190372272</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U33" t="n">
-        <v>1849.290686441986</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V33" t="n">
-        <v>1614.138578210243</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W33" t="n">
-        <v>1359.901221482042</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X33" t="n">
-        <v>1152.049721276509</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y33" t="n">
-        <v>944.2894225115551</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>376.5611201562124</v>
+        <v>504.1585764578689</v>
       </c>
       <c r="C34" t="n">
-        <v>376.5611201562124</v>
+        <v>504.1585764578689</v>
       </c>
       <c r="D34" t="n">
-        <v>376.5611201562124</v>
+        <v>504.1585764578689</v>
       </c>
       <c r="E34" t="n">
-        <v>376.5611201562124</v>
+        <v>504.1585764578689</v>
       </c>
       <c r="F34" t="n">
-        <v>376.5611201562124</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="G34" t="n">
-        <v>207.4609049796586</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I34" t="n">
         <v>48.81975253256327</v>
@@ -6867,43 +6867,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N34" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O34" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>412.9009368039365</v>
+        <v>504.1585764578689</v>
       </c>
       <c r="U34" t="n">
-        <v>412.9009368039365</v>
+        <v>504.1585764578689</v>
       </c>
       <c r="V34" t="n">
-        <v>376.5611201562124</v>
+        <v>504.1585764578689</v>
       </c>
       <c r="W34" t="n">
-        <v>376.5611201562124</v>
+        <v>504.1585764578689</v>
       </c>
       <c r="X34" t="n">
-        <v>376.5611201562124</v>
+        <v>504.1585764578689</v>
       </c>
       <c r="Y34" t="n">
-        <v>376.5611201562124</v>
+        <v>504.1585764578689</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1081.786034434518</v>
+        <v>851.219582464727</v>
       </c>
       <c r="C35" t="n">
-        <v>1081.786034434518</v>
+        <v>851.219582464727</v>
       </c>
       <c r="D35" t="n">
-        <v>723.5203358277677</v>
+        <v>851.219582464727</v>
       </c>
       <c r="E35" t="n">
-        <v>723.5203358277677</v>
+        <v>465.4313298664827</v>
       </c>
       <c r="F35" t="n">
-        <v>723.5203358277677</v>
+        <v>465.4313298664827</v>
       </c>
       <c r="G35" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H35" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6964,25 +6964,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2040.094374027286</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U35" t="n">
-        <v>1786.314680039169</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V35" t="n">
-        <v>1455.251792695598</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W35" t="n">
-        <v>1455.251792695598</v>
+        <v>1614.824672701619</v>
       </c>
       <c r="X35" t="n">
-        <v>1081.786034434518</v>
+        <v>1241.358914440539</v>
       </c>
       <c r="Y35" t="n">
-        <v>1081.786034434518</v>
+        <v>851.219582464727</v>
       </c>
     </row>
     <row r="36">
@@ -6995,46 +6995,46 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C36" t="n">
-        <v>655.0846205472362</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D36" t="n">
-        <v>506.150210885985</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E36" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F36" t="n">
-        <v>359.6156529128699</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>101.5297900452609</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K36" t="n">
-        <v>285.1110033225003</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L36" t="n">
-        <v>664.2381464478935</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N36" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.1684137834047</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C37" t="n">
-        <v>188.1684137834047</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="D37" t="n">
-        <v>188.1684137834047</v>
+        <v>490.5215302684225</v>
       </c>
       <c r="E37" t="n">
-        <v>188.1684137834047</v>
+        <v>342.6084366860293</v>
       </c>
       <c r="F37" t="n">
-        <v>188.1684137834047</v>
+        <v>195.718489188119</v>
       </c>
       <c r="G37" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
         <v>48.81975253256327</v>
@@ -7104,43 +7104,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O37" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>442.8529019892916</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>442.8529019892916</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>442.8529019892916</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V37" t="n">
-        <v>188.1684137834047</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W37" t="n">
-        <v>188.1684137834047</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X37" t="n">
-        <v>188.1684137834047</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.1684137834047</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>980.4169119745452</v>
+        <v>1190.854155931799</v>
       </c>
       <c r="C38" t="n">
-        <v>611.4543950341335</v>
+        <v>821.8916389913875</v>
       </c>
       <c r="D38" t="n">
-        <v>253.188696427383</v>
+        <v>821.8916389913875</v>
       </c>
       <c r="E38" t="n">
-        <v>48.81975253256327</v>
+        <v>821.8916389913875</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256327</v>
+        <v>410.9057342017799</v>
       </c>
       <c r="G38" t="n">
         <v>48.81975253256327</v>
@@ -7174,13 +7174,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K38" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7204,22 +7204,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U38" t="n">
-        <v>2440.987626628164</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V38" t="n">
-        <v>2109.924739284593</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W38" t="n">
-        <v>1757.156084014479</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="X38" t="n">
-        <v>1757.156084014479</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="Y38" t="n">
-        <v>1367.016752038667</v>
+        <v>1577.453995995921</v>
       </c>
     </row>
     <row r="39">
@@ -7241,7 +7241,7 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F39" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G39" t="n">
         <v>48.81975253256327</v>
@@ -7259,19 +7259,19 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>728.4044351658747</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>123.4837667669759</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C40" t="n">
-        <v>123.4837667669759</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D40" t="n">
-        <v>123.4837667669759</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E40" t="n">
         <v>48.81975253256327</v>
@@ -7341,43 +7341,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O40" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>412.9009368039365</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>412.9009368039365</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V40" t="n">
-        <v>412.9009368039365</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W40" t="n">
-        <v>123.4837667669759</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X40" t="n">
-        <v>123.4837667669759</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y40" t="n">
-        <v>123.4837667669759</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1267.631526924731</v>
+        <v>621.901912226136</v>
       </c>
       <c r="C41" t="n">
-        <v>898.669009984319</v>
+        <v>621.901912226136</v>
       </c>
       <c r="D41" t="n">
-        <v>540.4033113775685</v>
+        <v>621.901912226136</v>
       </c>
       <c r="E41" t="n">
-        <v>540.4033113775685</v>
+        <v>621.901912226136</v>
       </c>
       <c r="F41" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G41" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H41" t="n">
         <v>210.9160074365284</v>
       </c>
       <c r="I41" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L41" t="n">
         <v>795.0052981540045</v>
@@ -7429,34 +7429,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S41" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="T41" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U41" t="n">
-        <v>1951.463069538415</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="V41" t="n">
-        <v>1620.400182194845</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W41" t="n">
-        <v>1267.631526924731</v>
+        <v>1033.392538692175</v>
       </c>
       <c r="X41" t="n">
-        <v>1267.631526924731</v>
+        <v>659.926780431095</v>
       </c>
       <c r="Y41" t="n">
-        <v>1267.631526924731</v>
+        <v>621.901912226136</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>922.6086434646021</v>
+        <v>779.834467487422</v>
       </c>
       <c r="C42" t="n">
-        <v>748.1556141834751</v>
+        <v>605.381438206295</v>
       </c>
       <c r="D42" t="n">
-        <v>599.2212045222238</v>
+        <v>456.4470285450437</v>
       </c>
       <c r="E42" t="n">
-        <v>439.9837495167684</v>
+        <v>297.2095735395882</v>
       </c>
       <c r="F42" t="n">
-        <v>293.4491915436533</v>
+        <v>150.6750155664732</v>
       </c>
       <c r="G42" t="n">
-        <v>155.4193039928149</v>
+        <v>150.6750155664732</v>
       </c>
       <c r="H42" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I42" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J42" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N42" t="n">
         <v>1557.865593173221</v>
@@ -7514,28 +7514,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2423.364071498218</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2423.364071498218</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T42" t="n">
-        <v>2224.002748345386</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U42" t="n">
-        <v>1995.825244415101</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V42" t="n">
-        <v>1760.673136183358</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W42" t="n">
-        <v>1506.435779455157</v>
+        <v>1363.661603477977</v>
       </c>
       <c r="X42" t="n">
-        <v>1298.584279249624</v>
+        <v>1155.810103272444</v>
       </c>
       <c r="Y42" t="n">
-        <v>1090.82398048467</v>
+        <v>948.0498045074901</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>515.9097814070539</v>
+        <v>123.4695312601332</v>
       </c>
       <c r="C43" t="n">
-        <v>515.9097814070539</v>
+        <v>123.4695312601332</v>
       </c>
       <c r="D43" t="n">
-        <v>515.9097814070539</v>
+        <v>123.4695312601332</v>
       </c>
       <c r="E43" t="n">
-        <v>515.9097814070539</v>
+        <v>123.4695312601332</v>
       </c>
       <c r="F43" t="n">
-        <v>515.9097814070539</v>
+        <v>123.4695312601332</v>
       </c>
       <c r="G43" t="n">
-        <v>346.8095662305</v>
+        <v>123.4695312601332</v>
       </c>
       <c r="H43" t="n">
-        <v>188.1684137834047</v>
+        <v>123.4695312601332</v>
       </c>
       <c r="I43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K43" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L43" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O43" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P43" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>515.9097814070539</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>515.9097814070539</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V43" t="n">
-        <v>515.9097814070539</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W43" t="n">
-        <v>515.9097814070539</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="X43" t="n">
-        <v>515.9097814070539</v>
+        <v>123.4695312601332</v>
       </c>
       <c r="Y43" t="n">
-        <v>515.9097814070539</v>
+        <v>123.4695312601332</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1757.156084014479</v>
+        <v>1398.355276762313</v>
       </c>
       <c r="C44" t="n">
-        <v>1388.193567074067</v>
+        <v>1398.355276762313</v>
       </c>
       <c r="D44" t="n">
-        <v>1388.193567074067</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E44" t="n">
-        <v>1207.480627192637</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F44" t="n">
-        <v>796.4947224030295</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G44" t="n">
-        <v>378.3070564736033</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H44" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7675,25 +7675,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T44" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U44" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V44" t="n">
-        <v>2109.924739284593</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="W44" t="n">
-        <v>1757.156084014479</v>
+        <v>1687.325718757172</v>
       </c>
       <c r="X44" t="n">
-        <v>1757.156084014479</v>
+        <v>1687.325718757172</v>
       </c>
       <c r="Y44" t="n">
-        <v>1757.156084014479</v>
+        <v>1687.325718757172</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>748.1556141834751</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C45" t="n">
-        <v>748.1556141834751</v>
+        <v>655.0846205472362</v>
       </c>
       <c r="D45" t="n">
-        <v>599.2212045222238</v>
+        <v>506.150210885985</v>
       </c>
       <c r="E45" t="n">
-        <v>439.9837495167684</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F45" t="n">
-        <v>293.4491915436533</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G45" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H45" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O45" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>424.5997883913116</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="C46" t="n">
-        <v>424.5997883913116</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="D46" t="n">
-        <v>424.5997883913116</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="E46" t="n">
-        <v>276.6866948089184</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="F46" t="n">
-        <v>207.4609049796586</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="G46" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7839,19 +7839,19 @@
         <v>424.5997883913116</v>
       </c>
       <c r="U46" t="n">
-        <v>424.5997883913116</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="V46" t="n">
-        <v>424.5997883913116</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="W46" t="n">
-        <v>424.5997883913116</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="X46" t="n">
-        <v>424.5997883913116</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="Y46" t="n">
-        <v>424.5997883913116</v>
+        <v>135.4207008687039</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194301</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029002</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185851</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194302</v>
+        <v>61.27660229194301</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>354.1197822338755</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>180.8033201453154</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>275.6680385918563</v>
       </c>
       <c r="N24" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>94.72888660085718</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443489</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>362.5001705371775</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>275.6680385918563</v>
       </c>
       <c r="N42" t="n">
-        <v>354.1197822338756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>354.1197822338756</v>
+        <v>447.9802256040016</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>104.3559917169383</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>29.87831610086016</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>141.3464342174087</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>141.3464342174087</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>166.7420421891969</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23439,7 +23439,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617342</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23469,19 +23469,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>151.5565796077591</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>228.3380131155146</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.4184586216305</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>19.15304507801233</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>61.77024252613239</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>31.8866475515949</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>109.8151496063303</v>
       </c>
       <c r="I16" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617342</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23709,10 +23709,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>239.0477053310876</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>140.0497398230222</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>85.12013825184059</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>35.81287827175962</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>21.74148333600714</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>132.3311100301909</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>123.0809295539527</v>
       </c>
       <c r="H19" t="n">
         <v>157.0547409226243</v>
@@ -23913,7 +23913,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617342</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23946,16 +23946,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597631</v>
+        <v>49.4227569240702</v>
       </c>
       <c r="S20" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>190.6873493490949</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>158.3910720113375</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>97.39144430711919</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
-        <v>11.62499163362438</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
         <v>137.955174638333</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.4598605480533</v>
@@ -24186,13 +24186,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>105.8250632127044</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>193.2381810305402</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>232.392715369882</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>97.94575501742787</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>239.0477053310879</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>231.3671951840977</v>
+        <v>232.392715369882</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>21.97946373578841</v>
+        <v>154.319275032048</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24657,13 +24657,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>367.2610028341478</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>3.021613249328766</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.31621162768039</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>20.84683807268081</v>
       </c>
       <c r="H31" t="n">
         <v>157.0547409226243</v>
@@ -24882,22 +24882,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>131.0247763486591</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>41.66858347344031</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>53.35061880807839</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>52.22830032617343</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
         <v>151.1350615014064</v>
@@ -25128,13 +25128,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>90.34506325739287</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>216.1612248425812</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>232.7199350644348</v>
+        <v>327.7527586111813</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25235,25 +25235,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>106.2795475015859</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>53.35061880807848</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>21.97946373578819</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617343</v>
@@ -25356,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R37" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>18.0705824620004</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
         <v>225.4598605480533</v>
@@ -25371,7 +25371,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>179.6051156163902</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>55.54066741760749</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25481,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>92.88627525581317</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>105.5335559456492</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>72.51658855450071</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
         <v>151.1350615014064</v>
@@ -25602,13 +25602,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>163.496905604254</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>348.5933191331441</v>
       </c>
     </row>
     <row r="42">
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4.69684554207835</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.626077405407</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>64.05189369803881</v>
       </c>
       <c r="J43" t="n">
         <v>52.22830032617343</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
@@ -25839,10 +25839,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>101.9787561570862</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>96.65310408856982</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>203.0245595896461</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.71133221314653</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>106.2795475015859</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>76.88751609196396</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>81.67427417200913</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26079,7 +26079,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649211.6991541228</v>
+        <v>649211.6991541232</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649211.6991541228</v>
+        <v>649211.6991541231</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649211.699154123</v>
+        <v>649211.6991541231</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649211.699154123</v>
+        <v>649211.6991541228</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649211.699154123</v>
+        <v>649211.6991541231</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>649211.6991541228</v>
+        <v>649211.699154123</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
         <v>352485.1114947454</v>
       </c>
       <c r="F2" t="n">
+        <v>352485.1114947452</v>
+      </c>
+      <c r="G2" t="n">
         <v>352485.1114947453</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>352485.1114947454</v>
+      </c>
+      <c r="I2" t="n">
+        <v>352485.1114947451</v>
+      </c>
+      <c r="J2" t="n">
         <v>352485.1114947452</v>
       </c>
-      <c r="H2" t="n">
-        <v>352485.1114947451</v>
-      </c>
-      <c r="I2" t="n">
-        <v>352485.1114947452</v>
-      </c>
-      <c r="J2" t="n">
-        <v>352485.1114947453</v>
-      </c>
       <c r="K2" t="n">
-        <v>352485.1114947452</v>
+        <v>352485.1114947454</v>
       </c>
       <c r="L2" t="n">
         <v>352485.1114947453</v>
       </c>
       <c r="M2" t="n">
+        <v>352485.1114947454</v>
+      </c>
+      <c r="N2" t="n">
         <v>352485.1114947453</v>
-      </c>
-      <c r="N2" t="n">
-        <v>352485.1114947454</v>
       </c>
       <c r="O2" t="n">
         <v>352485.1114947454</v>
       </c>
       <c r="P2" t="n">
-        <v>352485.1114947453</v>
+        <v>352485.1114947455</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.2452810931</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>53162.14282437483</v>
       </c>
       <c r="F4" t="n">
-        <v>53162.14282437483</v>
+        <v>53162.14282437482</v>
       </c>
       <c r="G4" t="n">
         <v>53162.14282437483</v>
       </c>
       <c r="H4" t="n">
-        <v>53162.14282437484</v>
+        <v>53162.14282437483</v>
       </c>
       <c r="I4" t="n">
-        <v>53162.14282437484</v>
+        <v>53162.14282437483</v>
       </c>
       <c r="J4" t="n">
         <v>53162.14282437483</v>
@@ -26453,13 +26453,13 @@
         <v>53162.14282437483</v>
       </c>
       <c r="N4" t="n">
-        <v>53162.14282437484</v>
+        <v>53162.14282437482</v>
       </c>
       <c r="O4" t="n">
         <v>53162.14282437483</v>
       </c>
       <c r="P4" t="n">
-        <v>53162.14282437484</v>
+        <v>53162.14282437482</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="G5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="H5" t="n">
         <v>44136.03802033842</v>
@@ -26508,7 +26508,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="O5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="P5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75295.91855448089</v>
+        <v>75295.91855448065</v>
       </c>
       <c r="C6" t="n">
         <v>156065.3500860286</v>
       </c>
       <c r="D6" t="n">
-        <v>156065.3500860286</v>
+        <v>156065.3500860284</v>
       </c>
       <c r="E6" t="n">
-        <v>-121217.2930564803</v>
+        <v>-114945.2609401213</v>
       </c>
       <c r="F6" t="n">
-        <v>248218.0060762998</v>
+        <v>254490.0381926587</v>
       </c>
       <c r="G6" t="n">
-        <v>248218.0060762997</v>
+        <v>254490.0381926588</v>
       </c>
       <c r="H6" t="n">
-        <v>248218.0060762996</v>
+        <v>254490.0381926589</v>
       </c>
       <c r="I6" t="n">
-        <v>248218.0060762997</v>
+        <v>254490.0381926586</v>
       </c>
       <c r="J6" t="n">
-        <v>185158.0634771936</v>
+        <v>191430.0955935525</v>
       </c>
       <c r="K6" t="n">
-        <v>248218.0060762997</v>
+        <v>254490.0381926589</v>
       </c>
       <c r="L6" t="n">
-        <v>248218.0060762998</v>
+        <v>254490.0381926588</v>
       </c>
       <c r="M6" t="n">
-        <v>156203.7607952067</v>
+        <v>162475.7929115658</v>
       </c>
       <c r="N6" t="n">
-        <v>248218.0060762998</v>
+        <v>254490.0381926588</v>
       </c>
       <c r="O6" t="n">
-        <v>248218.0060762998</v>
+        <v>254490.0381926589</v>
       </c>
       <c r="P6" t="n">
-        <v>248218.0060762998</v>
+        <v>254490.038192659</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="F3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="G3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="H3" t="n">
         <v>322.6158759445108</v>
@@ -26804,7 +26804,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="G4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="H4" t="n">
         <v>610.2469066570409</v>
@@ -26828,7 +26828,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="O4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="P4" t="n">
         <v>610.2469066570409</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>111.1288060319158</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>318.0277841748236</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>126.3942969708653</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>60.50207587874957</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>334.4055473171627</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>172.8041343964291</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.43874084280178</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>11.52642163877024</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27794,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.32518834398849</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>297.5152807112693</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>349.7082848322977</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>121.2058486888432</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>81.32645443465279</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28028,13 +28028,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>147.3903175997337</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.3886183277161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31758,7 +31758,7 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548044</v>
       </c>
       <c r="J11" t="n">
         <v>110.0768611093284</v>
@@ -31770,7 +31770,7 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M11" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253934</v>
       </c>
       <c r="N11" t="n">
         <v>231.4177177265083</v>
@@ -31782,16 +31782,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.055819792574</v>
+        <v>140.0558197925741</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517339</v>
+        <v>81.4694251951734</v>
       </c>
       <c r="S11" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300721</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500889</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806461</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847293</v>
       </c>
       <c r="I12" t="n">
-        <v>23.89183609589066</v>
+        <v>23.89183609589067</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472369</v>
       </c>
       <c r="K12" t="n">
         <v>112.054233062727</v>
@@ -31855,22 +31855,22 @@
         <v>180.479234222958</v>
       </c>
       <c r="O12" t="n">
-        <v>165.1032398336026</v>
+        <v>165.1032398336027</v>
       </c>
       <c r="P12" t="n">
-        <v>132.5099057252086</v>
+        <v>132.5099057252087</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876458</v>
       </c>
       <c r="R12" t="n">
         <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
-        <v>12.88941730778304</v>
+        <v>12.88941730778305</v>
       </c>
       <c r="T12" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518919</v>
       </c>
       <c r="U12" t="n">
         <v>0.04565318999214778</v>
@@ -31910,34 +31910,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704294</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815276</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049936</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280078</v>
       </c>
       <c r="L13" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223823</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526558</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613042</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188945</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501262</v>
+        <v>70.36199366501263</v>
       </c>
       <c r="Q13" t="n">
         <v>48.71499726762114</v>
@@ -31946,13 +31946,13 @@
         <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
-        <v>10.13860056042011</v>
+        <v>10.13860056042012</v>
       </c>
       <c r="T13" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228198</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929619</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548044</v>
       </c>
       <c r="J14" t="n">
         <v>110.0768611093284</v>
@@ -32007,7 +32007,7 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M14" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253934</v>
       </c>
       <c r="N14" t="n">
         <v>231.4177177265083</v>
@@ -32019,16 +32019,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.055819792574</v>
+        <v>140.0558197925741</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517339</v>
+        <v>81.4694251951734</v>
       </c>
       <c r="S14" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300721</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500889</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806461</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847293</v>
       </c>
       <c r="I15" t="n">
-        <v>23.89183609589066</v>
+        <v>23.89183609589067</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472369</v>
       </c>
       <c r="K15" t="n">
         <v>112.054233062727</v>
@@ -32092,22 +32092,22 @@
         <v>180.479234222958</v>
       </c>
       <c r="O15" t="n">
-        <v>165.1032398336026</v>
+        <v>165.1032398336027</v>
       </c>
       <c r="P15" t="n">
-        <v>132.5099057252086</v>
+        <v>132.5099057252087</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876458</v>
       </c>
       <c r="R15" t="n">
         <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
-        <v>12.88941730778304</v>
+        <v>12.88941730778305</v>
       </c>
       <c r="T15" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518919</v>
       </c>
       <c r="U15" t="n">
         <v>0.04565318999214778</v>
@@ -32147,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704294</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815276</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049936</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280078</v>
       </c>
       <c r="L16" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223823</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526558</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613042</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188945</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501262</v>
+        <v>70.36199366501263</v>
       </c>
       <c r="Q16" t="n">
         <v>48.71499726762114</v>
@@ -32183,13 +32183,13 @@
         <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
-        <v>10.13860056042011</v>
+        <v>10.13860056042012</v>
       </c>
       <c r="T16" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228198</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929619</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548044</v>
       </c>
       <c r="J17" t="n">
         <v>110.0768611093284</v>
@@ -32244,7 +32244,7 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M17" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253934</v>
       </c>
       <c r="N17" t="n">
         <v>231.4177177265083</v>
@@ -32256,16 +32256,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q17" t="n">
-        <v>140.055819792574</v>
+        <v>140.0558197925741</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.4694251951734</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300721</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500889</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806461</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847293</v>
       </c>
       <c r="I18" t="n">
-        <v>23.89183609589066</v>
+        <v>23.89183609589067</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472369</v>
       </c>
       <c r="K18" t="n">
         <v>112.054233062727</v>
@@ -32329,22 +32329,22 @@
         <v>180.479234222958</v>
       </c>
       <c r="O18" t="n">
-        <v>165.1032398336026</v>
+        <v>165.1032398336027</v>
       </c>
       <c r="P18" t="n">
-        <v>132.5099057252086</v>
+        <v>132.5099057252087</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876458</v>
       </c>
       <c r="R18" t="n">
         <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
-        <v>12.88941730778304</v>
+        <v>12.88941730778305</v>
       </c>
       <c r="T18" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518919</v>
       </c>
       <c r="U18" t="n">
         <v>0.04565318999214778</v>
@@ -32384,34 +32384,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704294</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815276</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049936</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280078</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223823</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526558</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613042</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188945</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.36199366501263</v>
       </c>
       <c r="Q19" t="n">
         <v>48.71499726762114</v>
@@ -32420,13 +32420,13 @@
         <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
-        <v>10.13860056042011</v>
+        <v>10.13860056042012</v>
       </c>
       <c r="T19" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228198</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929619</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K21" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R21" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L22" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P22" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K24" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R24" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L25" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P25" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K27" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,10 +33046,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R27" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L28" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P28" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K30" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L30" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N30" t="n">
         <v>180.479234222958</v>
@@ -33283,10 +33283,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R30" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L31" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P31" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K33" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N33" t="n">
         <v>180.479234222958</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R33" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L34" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P34" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K36" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N36" t="n">
         <v>180.479234222958</v>
@@ -33757,10 +33757,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R36" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L37" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P37" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H38" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J38" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K38" t="n">
         <v>164.9766803203078</v>
@@ -33906,7 +33906,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N38" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O38" t="n">
         <v>218.5211886152591</v>
@@ -33918,13 +33918,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S38" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T38" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H39" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K39" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L39" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M39" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N39" t="n">
         <v>180.479234222958</v>
@@ -33994,10 +33994,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R39" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778304</v>
@@ -34006,7 +34006,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,40 +34043,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I40" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J40" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K40" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L40" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P40" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R40" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S40" t="n">
         <v>10.13860056042011</v>
@@ -34085,7 +34085,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H41" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I41" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K41" t="n">
         <v>164.9766803203078</v>
@@ -34143,7 +34143,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O41" t="n">
         <v>218.5211886152591</v>
@@ -34155,13 +34155,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R41" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S41" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T41" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U41" t="n">
         <v>0.1037558596002446</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H42" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I42" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J42" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K42" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L42" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N42" t="n">
         <v>180.479234222958</v>
@@ -34231,10 +34231,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R42" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S42" t="n">
         <v>12.88941730778304</v>
@@ -34243,7 +34243,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,40 +34280,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H43" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I43" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J43" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K43" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L43" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M43" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N43" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O43" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P43" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R43" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S43" t="n">
         <v>10.13860056042011</v>
@@ -34322,7 +34322,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>169.9091475161415</v>
-      </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471586</v>
       </c>
       <c r="K11" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464921</v>
       </c>
       <c r="L11" t="n">
         <v>386.5629597537834</v>
@@ -35424,13 +35424,13 @@
         <v>439.3515785419015</v>
       </c>
       <c r="O11" t="n">
-        <v>369.2231584563177</v>
+        <v>369.2231584563178</v>
       </c>
       <c r="P11" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912682</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
@@ -35500,16 +35500,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508155</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185921</v>
+        <v>158.6748764185922</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691792</v>
+        <v>45.32117857691793</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0828127225543</v>
+        <v>114.0828127225544</v>
       </c>
       <c r="M13" t="n">
         <v>130.7783941571062</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990612</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471586</v>
       </c>
       <c r="K14" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464921</v>
       </c>
       <c r="L14" t="n">
         <v>386.5629597537834</v>
@@ -35661,13 +35661,13 @@
         <v>439.3515785419015</v>
       </c>
       <c r="O14" t="n">
-        <v>369.2231584563177</v>
+        <v>369.2231584563178</v>
       </c>
       <c r="P14" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
@@ -35740,13 +35740,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077434</v>
       </c>
       <c r="P15" t="n">
-        <v>316.9982669508155</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185922</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691792</v>
+        <v>45.32117857691793</v>
       </c>
       <c r="L16" t="n">
-        <v>114.0828127225543</v>
+        <v>114.0828127225544</v>
       </c>
       <c r="M16" t="n">
         <v>130.7783941571062</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990612</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471586</v>
       </c>
       <c r="K17" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464921</v>
       </c>
       <c r="L17" t="n">
         <v>386.5629597537834</v>
@@ -35898,13 +35898,13 @@
         <v>439.3515785419015</v>
       </c>
       <c r="O17" t="n">
-        <v>369.2231584563177</v>
+        <v>369.2231584563178</v>
       </c>
       <c r="P17" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q17" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O18" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>316.9982669508155</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185922</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.32117857691793</v>
       </c>
       <c r="L19" t="n">
-        <v>114.0828127225543</v>
+        <v>114.0828127225544</v>
       </c>
       <c r="M19" t="n">
         <v>130.7783941571062</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990612</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L21" t="n">
-        <v>382.95671022767</v>
+        <v>192.9196850695263</v>
       </c>
       <c r="M21" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.3966822177399</v>
+        <v>309.3596570595963</v>
       </c>
       <c r="N24" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
         <v>528.4798964831782</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>33.45228430891415</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009465</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
         <v>528.4798964831782</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
         <v>528.4798964831782</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009465</v>
+        <v>48.64100594280286</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
         <v>528.4798964831782</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K38" t="n">
         <v>269.032241846492</v>
@@ -37551,7 +37551,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M38" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N38" t="n">
         <v>439.3515785419015</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
-        <v>416.3693146658877</v>
+        <v>385.0071659263357</v>
       </c>
       <c r="P39" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L40" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M40" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N40" t="n">
         <v>133.158287785359</v>
@@ -37718,7 +37718,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37788,7 +37788,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M41" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N41" t="n">
         <v>439.3515785419015</v>
@@ -37800,7 +37800,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q41" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780294</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.3966822177399</v>
+        <v>309.3596570595963</v>
       </c>
       <c r="N42" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L43" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M43" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N43" t="n">
         <v>133.158287785359</v>
@@ -37955,7 +37955,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P43" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>403.2573043735003</v>
+        <v>497.1177477436264</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
